--- a/biology/Botanique/Véronique_petit-chêne/Véronique_petit-chêne.xlsx
+++ b/biology/Botanique/Véronique_petit-chêne/Véronique_petit-chêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_petit-ch%C3%AAne</t>
+          <t>Véronique_petit-chêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica chamaedrys
 La Véronique petit-chêne (Veronica chamaedrys L.), est une petite plante à fleurs bleues appartenant au genre Veronica, fréquente dans les prés et les bois clairs, souvent en zones montagneuses. Elle est parfois appelée Fausse Germandrée (nom vernaculaire).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_petit-ch%C3%AAne</t>
+          <t>Véronique_petit-chêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Plante herbacée basse, le plus souvent rampante, à tiges fines rougeâtres et velues. Feuilles également velues, opposées, ovales et dentées, sessiles ou à très court pétiole. Ses feuilles sont sinuées à la façon de celles du chêne, d'où son nom chamaedrys en latin scientifique (du grec khamaidrus « petit chêne », formé de khamai « à terre » c'est-à-dire « petit » et drus, « chêne »).
-Morphologie florale
-L'inflorescence est un racème (grappe) assez longuement pédonculé, se développant à l'aisselle des feuilles supérieures et portant de petites bractées étroites.
-Fleurs hermaphrodites d'un bleu assez vif, ne dépassant pas 1 cm, à quatre sépales verts et velus et à quatre pétales bleu vif striés de bleu plus sombre. Le centre de la corolle est blanc. Deux étamines assez longues. Ovaire à deux carpelles.
-Fruit et graines
-Le fruit est une petite capsule poilue en forme de cœur.
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée basse, le plus souvent rampante, à tiges fines rougeâtres et velues. Feuilles également velues, opposées, ovales et dentées, sessiles ou à très court pétiole. Ses feuilles sont sinuées à la façon de celles du chêne, d'où son nom chamaedrys en latin scientifique (du grec khamaidrus « petit chêne », formé de khamai « à terre » c'est-à-dire « petit » et drus, « chêne »).
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_petit-ch%C3%AAne</t>
+          <t>Véronique_petit-chêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante vivace commune dans presque toute l'Europe, à l'exception des plaines méditerranéennes, rencontrée souvent en montagne (jusqu'à 2 250 m.). Elle apprécie notamment les prés et les lieux boisés, où elle peut former d'importants tapis. Petite préférence pour le calcaire et les sols légèrement humides. Floraison de mars à juillet.
-Statuts de protection, menaces
-L'espèce n'est pas considérée comme étant menacée en France. Elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est un racème (grappe) assez longuement pédonculé, se développant à l'aisselle des feuilles supérieures et portant de petites bractées étroites.
+Fleurs hermaphrodites d'un bleu assez vif, ne dépassant pas 1 cm, à quatre sépales verts et velus et à quatre pétales bleu vif striés de bleu plus sombre. Le centre de la corolle est blanc. Deux étamines assez longues. Ovaire à deux carpelles.
 </t>
         </is>
       </c>
@@ -565,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_petit-ch%C3%AAne</t>
+          <t>Véronique_petit-chêne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +597,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite capsule poilue en forme de cœur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_petit-chêne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_petit-ch%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace commune dans presque toute l'Europe, à l'exception des plaines méditerranéennes, rencontrée souvent en montagne (jusqu'à 2 250 m.). Elle apprécie notamment les prés et les lieux boisés, où elle peut former d'importants tapis. Petite préférence pour le calcaire et les sols légèrement humides. Floraison de mars à juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Véronique_petit-chêne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_petit-ch%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Statuts de protection, menaces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. Elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Véronique_petit-chêne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_petit-ch%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a des propriétés astringentes, eupeptiques et cicatrisantes, les mêmes que celles de la Véronique officinale.
 Elle est peu utilisée car la présence d'aucuboside peut provoquer des diarrhées.
